--- a/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.07474004805015</v>
+        <v>13.62566823774726</v>
       </c>
       <c r="C2">
-        <v>13.46315291405887</v>
+        <v>7.523778912982117</v>
       </c>
       <c r="D2">
-        <v>3.744146155390454</v>
+        <v>7.402513861104905</v>
       </c>
       <c r="E2">
-        <v>9.302703671669265</v>
+        <v>10.96402548984528</v>
       </c>
       <c r="F2">
-        <v>39.81221630786577</v>
+        <v>24.68680345190024</v>
       </c>
       <c r="G2">
-        <v>2.1005259012217</v>
+        <v>2.110173047428472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.779901821657276</v>
+        <v>6.438188939331027</v>
       </c>
       <c r="K2">
-        <v>17.43287728654139</v>
+        <v>12.02575376253557</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.94964056996383</v>
+        <v>17.68118112648221</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.64711071749669</v>
+        <v>12.72132264860648</v>
       </c>
       <c r="C3">
-        <v>12.5086468789264</v>
+        <v>7.143023234361916</v>
       </c>
       <c r="D3">
-        <v>3.605066432303474</v>
+        <v>7.016060254094556</v>
       </c>
       <c r="E3">
-        <v>8.92795835736017</v>
+        <v>10.47813584037576</v>
       </c>
       <c r="F3">
-        <v>38.33906911900556</v>
+        <v>24.41108444314473</v>
       </c>
       <c r="G3">
-        <v>2.111257499337175</v>
+        <v>2.115508011771101</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.653594559515639</v>
+        <v>6.334966555388946</v>
       </c>
       <c r="K3">
-        <v>16.20010254722323</v>
+        <v>11.30893171088385</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.02776564840351</v>
+        <v>17.72395402126905</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72605960636053</v>
+        <v>12.13365584509354</v>
       </c>
       <c r="C4">
-        <v>11.8922125931992</v>
+        <v>6.898587248078485</v>
       </c>
       <c r="D4">
-        <v>3.518528901049693</v>
+        <v>6.770511720278673</v>
       </c>
       <c r="E4">
-        <v>8.697453955033076</v>
+        <v>10.17426005685252</v>
       </c>
       <c r="F4">
-        <v>37.44818999081203</v>
+        <v>24.2623411997923</v>
       </c>
       <c r="G4">
-        <v>2.117989810991173</v>
+        <v>2.118883398850025</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.579931178507044</v>
+        <v>6.274328235412971</v>
       </c>
       <c r="K4">
-        <v>15.40380708929657</v>
+        <v>10.8452750955132</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.47692770985125</v>
+        <v>17.765531923872</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33940389544586</v>
+        <v>11.88598870864411</v>
       </c>
       <c r="C5">
-        <v>11.63325454467046</v>
+        <v>6.796360090464142</v>
       </c>
       <c r="D5">
-        <v>3.483029529627685</v>
+        <v>6.668483827547083</v>
       </c>
       <c r="E5">
-        <v>8.603522584099057</v>
+        <v>10.04921320948237</v>
       </c>
       <c r="F5">
-        <v>37.08881322044855</v>
+        <v>24.2067943269093</v>
       </c>
       <c r="G5">
-        <v>2.120771921384852</v>
+        <v>2.120284588369511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.55087880856436</v>
+        <v>6.250317934076303</v>
       </c>
       <c r="K5">
-        <v>15.0692604524151</v>
+        <v>10.65044701242642</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.25634076226269</v>
+        <v>17.7861659972287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.27451273917686</v>
+        <v>11.84436805418477</v>
       </c>
       <c r="C6">
-        <v>11.58978291506718</v>
+        <v>6.779229298039438</v>
       </c>
       <c r="D6">
-        <v>3.477122370821165</v>
+        <v>6.651427229152837</v>
       </c>
       <c r="E6">
-        <v>8.587928752540602</v>
+        <v>10.02838153580097</v>
       </c>
       <c r="F6">
-        <v>37.02936777753841</v>
+        <v>24.19787365907964</v>
       </c>
       <c r="G6">
-        <v>2.121236296329122</v>
+        <v>2.120518824224361</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.54611267655231</v>
+        <v>6.24637363471931</v>
       </c>
       <c r="K6">
-        <v>15.01309801391809</v>
+        <v>10.61774178062328</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.2199490649764</v>
+        <v>17.78981053412324</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72089103090545</v>
+        <v>12.13034892670182</v>
       </c>
       <c r="C7">
-        <v>11.88875175316458</v>
+        <v>6.897219085032572</v>
       </c>
       <c r="D7">
-        <v>3.518051020139336</v>
+        <v>6.769143526863718</v>
       </c>
       <c r="E7">
-        <v>8.696187010706407</v>
+        <v>10.17257829915962</v>
       </c>
       <c r="F7">
-        <v>37.44332814017691</v>
+        <v>24.26157170076197</v>
       </c>
       <c r="G7">
-        <v>2.118027171686701</v>
+        <v>2.118902190952466</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.579535472539646</v>
+        <v>6.274001574934259</v>
       </c>
       <c r="K7">
-        <v>15.39933616079085</v>
+        <v>10.84267134856264</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.47393698076126</v>
+        <v>17.76579546882257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.59163835676579</v>
+        <v>13.32054706192159</v>
       </c>
       <c r="C8">
-        <v>13.14026601878943</v>
+        <v>7.394737148657833</v>
       </c>
       <c r="D8">
-        <v>3.696458077842737</v>
+        <v>7.271041527991846</v>
       </c>
       <c r="E8">
-        <v>9.173633735439523</v>
+        <v>10.79773930269125</v>
       </c>
       <c r="F8">
-        <v>39.30157191409555</v>
+        <v>24.58741457607626</v>
       </c>
       <c r="G8">
-        <v>2.104198134544504</v>
+        <v>2.111992234746957</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.735536373809568</v>
+        <v>6.402036134396318</v>
       </c>
       <c r="K8">
-        <v>17.01589354780103</v>
+        <v>11.78349032040781</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.628657106683</v>
+        <v>17.69265346146931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.91432916623079</v>
+        <v>15.39954480803807</v>
       </c>
       <c r="C9">
-        <v>15.35944912367838</v>
+        <v>8.283845912090014</v>
       </c>
       <c r="D9">
-        <v>4.035273710249904</v>
+        <v>8.185722781923022</v>
       </c>
       <c r="E9">
-        <v>10.103005181219</v>
+        <v>11.97313850975628</v>
       </c>
       <c r="F9">
-        <v>43.04616540507475</v>
+        <v>25.39323357004057</v>
       </c>
       <c r="G9">
-        <v>2.078081920155316</v>
+        <v>2.099203149517782</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.072923556858375</v>
+        <v>6.674318717299643</v>
       </c>
       <c r="K9">
-        <v>19.88091226502847</v>
+        <v>13.44112586504783</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.01199814018253</v>
+        <v>17.67800189230609</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.15605296844712</v>
+        <v>16.77460108159536</v>
       </c>
       <c r="C10">
-        <v>16.85556626582489</v>
+        <v>8.882411864780297</v>
       </c>
       <c r="D10">
-        <v>4.275300486382773</v>
+        <v>8.811276919503097</v>
       </c>
       <c r="E10">
-        <v>10.77818025790262</v>
+        <v>12.79867037119382</v>
       </c>
       <c r="F10">
-        <v>45.85349351706758</v>
+        <v>26.09129403126165</v>
       </c>
       <c r="G10">
-        <v>2.059298715260656</v>
+        <v>2.090227175790773</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.341037568801662</v>
+        <v>6.886546403247194</v>
       </c>
       <c r="K10">
-        <v>21.81095980064386</v>
+        <v>14.54479228891888</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.83592571851329</v>
+        <v>17.75576413588365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.13551761434555</v>
+        <v>17.36777248857523</v>
       </c>
       <c r="C11">
-        <v>17.50926172459007</v>
+        <v>9.142628310322545</v>
       </c>
       <c r="D11">
-        <v>4.3822391835403</v>
+        <v>9.085210842462915</v>
       </c>
       <c r="E11">
-        <v>11.08339709980372</v>
+        <v>13.16486868015472</v>
       </c>
       <c r="F11">
-        <v>47.14344801190312</v>
+        <v>26.43258050047812</v>
       </c>
       <c r="G11">
-        <v>2.050788427807134</v>
+        <v>2.086224623209558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.467722398148788</v>
+        <v>6.985582372999355</v>
       </c>
       <c r="K11">
-        <v>22.65376544493552</v>
+        <v>15.02227392251797</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.68253663356127</v>
+        <v>17.81252055577321</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.5009012527613</v>
+        <v>17.58780001982388</v>
       </c>
       <c r="C12">
-        <v>17.75314175561239</v>
+        <v>9.239420612027157</v>
       </c>
       <c r="D12">
-        <v>4.422392304215923</v>
+        <v>9.187382819420655</v>
       </c>
       <c r="E12">
-        <v>11.19870549900357</v>
+        <v>13.30212891060907</v>
       </c>
       <c r="F12">
-        <v>47.63395627657233</v>
+        <v>26.56527402184075</v>
       </c>
       <c r="G12">
-        <v>2.047565631110311</v>
+        <v>2.08471964525637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.516408202565472</v>
+        <v>7.023430670316866</v>
       </c>
       <c r="K12">
-        <v>22.96811167902026</v>
+        <v>15.19957347163944</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.00571970594373</v>
+        <v>17.83726406060661</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.42244997231359</v>
+        <v>17.54061650092348</v>
       </c>
       <c r="C13">
-        <v>17.70077704816306</v>
+        <v>9.218652398963908</v>
       </c>
       <c r="D13">
-        <v>4.41376005863405</v>
+        <v>9.165448069225658</v>
       </c>
       <c r="E13">
-        <v>11.17388344040035</v>
+        <v>13.2726311215794</v>
       </c>
       <c r="F13">
-        <v>47.52822215506765</v>
+        <v>26.53654177796041</v>
       </c>
       <c r="G13">
-        <v>2.048259812066623</v>
+        <v>2.085043308173296</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.505890482348672</v>
+        <v>7.015264185419579</v>
       </c>
       <c r="K13">
-        <v>22.90062098962905</v>
+        <v>15.16154462899736</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.93599790850877</v>
+        <v>17.83178771366333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.16568682419535</v>
+        <v>17.38596600599244</v>
       </c>
       <c r="C14">
-        <v>17.52939796202731</v>
+        <v>9.150626496790281</v>
       </c>
       <c r="D14">
-        <v>4.385549547127448</v>
+        <v>9.093648018675818</v>
       </c>
       <c r="E14">
-        <v>11.09288888977417</v>
+        <v>13.17618977033657</v>
       </c>
       <c r="F14">
-        <v>47.18376029384528</v>
+        <v>26.44342779236506</v>
       </c>
       <c r="G14">
-        <v>2.050523320543504</v>
+        <v>2.086100598647294</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.471713287988638</v>
+        <v>6.988689319324358</v>
       </c>
       <c r="K14">
-        <v>22.67972166189334</v>
+        <v>15.03693070478676</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.70907201032733</v>
+        <v>17.81449005553335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.00770217753755</v>
+        <v>17.29064166096535</v>
       </c>
       <c r="C15">
-        <v>17.42395322622141</v>
+        <v>9.108731106317755</v>
       </c>
       <c r="D15">
-        <v>4.368224784474365</v>
+        <v>9.049464383969134</v>
       </c>
       <c r="E15">
-        <v>11.04324275891927</v>
+        <v>13.11693116895066</v>
       </c>
       <c r="F15">
-        <v>46.97303914682759</v>
+        <v>26.38684400205592</v>
       </c>
       <c r="G15">
-        <v>2.051909605296143</v>
+        <v>2.086749585602201</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.450872806006489</v>
+        <v>6.972456084489361</v>
       </c>
       <c r="K15">
-        <v>22.5437965822382</v>
+        <v>14.96014443982858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.5704166477048</v>
+        <v>17.80432334543834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.09125451980527</v>
+        <v>16.735189899831</v>
       </c>
       <c r="C16">
-        <v>16.81232169187837</v>
+        <v>8.865162158020674</v>
       </c>
       <c r="D16">
-        <v>4.268264761709096</v>
+        <v>8.79315775704819</v>
       </c>
       <c r="E16">
-        <v>10.75819485585393</v>
+        <v>12.77454428392124</v>
       </c>
       <c r="F16">
-        <v>45.76946381966167</v>
+        <v>26.06947154675764</v>
       </c>
       <c r="G16">
-        <v>2.059855154474385</v>
+        <v>2.090490299835117</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.332856110171078</v>
+        <v>6.880123193728255</v>
       </c>
       <c r="K16">
-        <v>21.75519350257865</v>
+        <v>14.5130948607836</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.78094974717148</v>
+        <v>17.75250032824767</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.51890680934563</v>
+        <v>16.38619342967641</v>
       </c>
       <c r="C17">
-        <v>16.43035696206804</v>
+        <v>8.712638924061752</v>
       </c>
       <c r="D17">
-        <v>4.206350754943848</v>
+        <v>8.633172347815815</v>
       </c>
       <c r="E17">
-        <v>10.58283094392669</v>
+        <v>12.56205471663494</v>
       </c>
       <c r="F17">
-        <v>45.0345003971268</v>
+        <v>25.88088523302292</v>
       </c>
       <c r="G17">
-        <v>2.06473487283651</v>
+        <v>2.092805147061041</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.261686997651669</v>
+        <v>6.824108783983684</v>
       </c>
       <c r="K17">
-        <v>21.26257129117062</v>
+        <v>14.23256229117847</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.30105651158254</v>
+        <v>17.72631078469502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.18589510094438</v>
+        <v>16.18241144368631</v>
       </c>
       <c r="C18">
-        <v>16.20811566218679</v>
+        <v>8.62377524514422</v>
       </c>
       <c r="D18">
-        <v>4.170528306381987</v>
+        <v>8.540153233841114</v>
       </c>
       <c r="E18">
-        <v>10.48178332520852</v>
+        <v>12.43896008164366</v>
       </c>
       <c r="F18">
-        <v>44.61296459212033</v>
+        <v>25.77464736360427</v>
       </c>
       <c r="G18">
-        <v>2.067545124646018</v>
+        <v>2.094144235552613</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.221193986862834</v>
+        <v>6.792126095180056</v>
       </c>
       <c r="K18">
-        <v>20.97589973653683</v>
+        <v>14.06889183648644</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.02661139343098</v>
+        <v>17.7132493162449</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.07248036785648</v>
+        <v>16.11288906701753</v>
       </c>
       <c r="C19">
-        <v>16.1324254918348</v>
+        <v>8.593492768166669</v>
       </c>
       <c r="D19">
-        <v>4.158363849796056</v>
+        <v>8.508487997782694</v>
       </c>
       <c r="E19">
-        <v>10.4475391406277</v>
+        <v>12.39713421792854</v>
       </c>
       <c r="F19">
-        <v>44.47044162957791</v>
+        <v>25.73905899759602</v>
       </c>
       <c r="G19">
-        <v>2.068497383982296</v>
+        <v>2.094598968088975</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.207558682753377</v>
+        <v>6.781338136042381</v>
       </c>
       <c r="K19">
-        <v>20.87825878010791</v>
+        <v>14.01307756159933</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.933956098982</v>
+        <v>17.70916539545987</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.5802268729111</v>
+        <v>16.42365979048715</v>
       </c>
       <c r="C20">
-        <v>16.47127976257416</v>
+        <v>8.728992982121079</v>
       </c>
       <c r="D20">
-        <v>4.212963615388945</v>
+        <v>8.650306800500013</v>
       </c>
       <c r="E20">
-        <v>10.60151770050312</v>
+        <v>12.58476583146856</v>
       </c>
       <c r="F20">
-        <v>45.11261383695831</v>
+        <v>25.900729238983</v>
       </c>
       <c r="G20">
-        <v>2.064215083921835</v>
+        <v>2.092557942225017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.269217147889921</v>
+        <v>6.8300473566048</v>
       </c>
       <c r="K20">
-        <v>21.31535448821698</v>
+        <v>14.26266497001714</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.35197784742179</v>
+        <v>17.72889021974614</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.24125176053256</v>
+        <v>17.43151479738282</v>
       </c>
       <c r="C21">
-        <v>17.57983371587435</v>
+        <v>9.17065478513663</v>
       </c>
       <c r="D21">
-        <v>4.393845062143653</v>
+        <v>9.114779995801126</v>
       </c>
       <c r="E21">
-        <v>11.11668612290959</v>
+        <v>13.20455568576863</v>
       </c>
       <c r="F21">
-        <v>47.28487998869027</v>
+        <v>26.47068352517724</v>
       </c>
       <c r="G21">
-        <v>2.049858520671009</v>
+        <v>2.085789763820763</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.481732286316002</v>
+        <v>6.996485720167908</v>
       </c>
       <c r="K21">
-        <v>22.74473341685999</v>
+        <v>15.07362794886214</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.77565371051605</v>
+        <v>17.81948116288044</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.29481800004686</v>
+        <v>18.06346024306919</v>
       </c>
       <c r="C22">
-        <v>18.28311811956886</v>
+        <v>9.44912910969038</v>
       </c>
       <c r="D22">
-        <v>4.510062729100179</v>
+        <v>9.409234687602959</v>
       </c>
       <c r="E22">
-        <v>11.45182241506264</v>
+        <v>13.60137961933423</v>
       </c>
       <c r="F22">
-        <v>48.71658599420048</v>
+        <v>26.86334102357544</v>
       </c>
       <c r="G22">
-        <v>2.040472021943447</v>
+        <v>2.081428284478246</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.624802324893778</v>
+        <v>7.107271899493941</v>
       </c>
       <c r="K22">
-        <v>23.65104210976226</v>
+        <v>15.58318118470457</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.72133451065373</v>
+        <v>17.89771840793717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.73533737092163</v>
+        <v>17.72860640080727</v>
       </c>
       <c r="C23">
-        <v>17.90962836475571</v>
+        <v>9.301434904608735</v>
       </c>
       <c r="D23">
-        <v>4.448222502409894</v>
+        <v>9.252919636088585</v>
       </c>
       <c r="E23">
-        <v>11.2730875954151</v>
+        <v>13.39035960285682</v>
       </c>
       <c r="F23">
-        <v>47.95126926037018</v>
+        <v>26.65191486040879</v>
       </c>
       <c r="G23">
-        <v>2.045483964872306</v>
+        <v>2.083750735666696</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.548046827235163</v>
+        <v>7.047963278349258</v>
       </c>
       <c r="K23">
-        <v>23.16978684968265</v>
+        <v>15.31308585999033</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.2151406529821</v>
+        <v>17.85416239781483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.55251643151984</v>
+        <v>16.40673103124037</v>
       </c>
       <c r="C24">
-        <v>16.45278681740605</v>
+        <v>8.721602974760678</v>
       </c>
       <c r="D24">
-        <v>4.209974647556116</v>
+        <v>8.642563555558215</v>
       </c>
       <c r="E24">
-        <v>10.59307012991315</v>
+        <v>12.57450103267377</v>
       </c>
       <c r="F24">
-        <v>45.07729563399229</v>
+        <v>25.89175096786407</v>
       </c>
       <c r="G24">
-        <v>2.064450065051313</v>
+        <v>2.092669677760951</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.265811451703747</v>
+        <v>6.827361839362815</v>
       </c>
       <c r="K24">
-        <v>21.29150198974739</v>
+        <v>14.24906299031883</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.32895180024622</v>
+        <v>17.72771785577866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05138894012606</v>
+        <v>14.86411222029674</v>
       </c>
       <c r="C25">
-        <v>14.7833871362148</v>
+        <v>8.052816508662286</v>
       </c>
       <c r="D25">
-        <v>3.945046493782434</v>
+        <v>7.946202746319146</v>
       </c>
       <c r="E25">
-        <v>9.852755665063357</v>
+        <v>11.66140145440993</v>
       </c>
       <c r="F25">
-        <v>42.023191917756</v>
+        <v>25.15688465292672</v>
       </c>
       <c r="G25">
-        <v>2.085059689449761</v>
+        <v>2.102585813916768</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.978186214280997</v>
+        <v>6.598464645489667</v>
       </c>
       <c r="K25">
-        <v>19.1374206082852</v>
+        <v>13.01278333080077</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.35461057368461</v>
+        <v>17.66714771220995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62566823774726</v>
+        <v>13.56675726395156</v>
       </c>
       <c r="C2">
-        <v>7.523778912982117</v>
+        <v>8.986343942720953</v>
       </c>
       <c r="D2">
-        <v>7.402513861104905</v>
+        <v>8.442504376803338</v>
       </c>
       <c r="E2">
-        <v>10.96402548984528</v>
+        <v>11.45156087433672</v>
       </c>
       <c r="F2">
-        <v>24.68680345190024</v>
+        <v>20.31414448393742</v>
       </c>
       <c r="G2">
-        <v>2.110173047428472</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>20.75820136148505</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.673036844584252</v>
       </c>
       <c r="J2">
-        <v>6.438188939331027</v>
+        <v>8.865001641078027</v>
       </c>
       <c r="K2">
-        <v>12.02575376253557</v>
+        <v>13.42562951569991</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.314706410084102</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.49916367201078</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.68118112648221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.15251140743028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72132264860648</v>
+        <v>12.72327600300437</v>
       </c>
       <c r="C3">
-        <v>7.143023234361916</v>
+        <v>8.514506698084938</v>
       </c>
       <c r="D3">
-        <v>7.016060254094556</v>
+        <v>8.019406512771239</v>
       </c>
       <c r="E3">
-        <v>10.47813584037576</v>
+        <v>10.94696407812859</v>
       </c>
       <c r="F3">
-        <v>24.41108444314473</v>
+        <v>20.15022974651962</v>
       </c>
       <c r="G3">
-        <v>2.115508011771101</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>20.74701241806118</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.821312494748914</v>
       </c>
       <c r="J3">
-        <v>6.334966555388946</v>
+        <v>8.952274139146217</v>
       </c>
       <c r="K3">
-        <v>11.30893171088385</v>
+        <v>13.63197113742227</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.210108956319607</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.81264659893825</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.72395402126905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.26136770706614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13365584509354</v>
+        <v>12.1742737112497</v>
       </c>
       <c r="C4">
-        <v>6.898587248078485</v>
+        <v>8.214516829459393</v>
       </c>
       <c r="D4">
-        <v>6.770511720278673</v>
+        <v>7.751917257441429</v>
       </c>
       <c r="E4">
-        <v>10.17426005685252</v>
+        <v>10.6311402627041</v>
       </c>
       <c r="F4">
-        <v>24.2623411997923</v>
+        <v>20.06213200411291</v>
       </c>
       <c r="G4">
-        <v>2.118883398850025</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>20.75754227605701</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.916472941087844</v>
       </c>
       <c r="J4">
-        <v>6.274328235412971</v>
+        <v>9.009377151297</v>
       </c>
       <c r="K4">
-        <v>10.8452750955132</v>
+        <v>13.76344255979101</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.148084735177595</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.37013323965144</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.765531923872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.3362266575234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.88598870864411</v>
+        <v>11.9402523447512</v>
       </c>
       <c r="C5">
-        <v>6.796360090464142</v>
+        <v>8.099357132719415</v>
       </c>
       <c r="D5">
-        <v>6.668483827547083</v>
+        <v>7.643193791901883</v>
       </c>
       <c r="E5">
-        <v>10.04921320948237</v>
+        <v>10.50204588308655</v>
       </c>
       <c r="F5">
-        <v>24.2067943269093</v>
+        <v>20.02274883657722</v>
       </c>
       <c r="G5">
-        <v>2.120284588369511</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>20.75511319727691</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.959183728377244</v>
       </c>
       <c r="J5">
-        <v>6.250317934076303</v>
+        <v>9.031801186160283</v>
       </c>
       <c r="K5">
-        <v>10.65044701242642</v>
+        <v>13.81421955908322</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.12321327445889</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.18652943520001</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.7861659972287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.36433019010038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.84436805418477</v>
+        <v>11.89786804643074</v>
       </c>
       <c r="C6">
-        <v>6.779229298039438</v>
+        <v>8.09186245232868</v>
       </c>
       <c r="D6">
-        <v>6.651427229152837</v>
+        <v>7.627576766191646</v>
       </c>
       <c r="E6">
-        <v>10.02838153580097</v>
+        <v>10.48166183328723</v>
       </c>
       <c r="F6">
-        <v>24.19787365907964</v>
+        <v>20.00833826042089</v>
       </c>
       <c r="G6">
-        <v>2.120518824224361</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>20.74160955373771</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.970061436847587</v>
       </c>
       <c r="J6">
-        <v>6.24637363471931</v>
+        <v>9.033485812440704</v>
       </c>
       <c r="K6">
-        <v>10.61774178062328</v>
+        <v>13.81786036408838</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.118911629797195</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.15807807941957</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.78981053412324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.36380043225034</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.13034892670182</v>
+        <v>12.16299516943779</v>
       </c>
       <c r="C7">
-        <v>6.897219085032572</v>
+        <v>8.244566127109046</v>
       </c>
       <c r="D7">
-        <v>6.769143526863718</v>
+        <v>7.757264517704646</v>
       </c>
       <c r="E7">
-        <v>10.17257829915962</v>
+        <v>10.63242443613255</v>
       </c>
       <c r="F7">
-        <v>24.26157170076197</v>
+        <v>20.03966043034741</v>
       </c>
       <c r="G7">
-        <v>2.118902190952466</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>20.72107020700219</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.926898639730926</v>
       </c>
       <c r="J7">
-        <v>6.274001574934259</v>
+        <v>9.003970730879519</v>
       </c>
       <c r="K7">
-        <v>10.84267134856264</v>
+        <v>13.75083379346621</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.147184071661404</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.37397878866109</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.76579546882257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.32209048852234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.32054706192159</v>
+        <v>13.27239709581343</v>
       </c>
       <c r="C8">
-        <v>7.394737148657833</v>
+        <v>8.865172908878312</v>
       </c>
       <c r="D8">
-        <v>7.271041527991846</v>
+        <v>8.306729374157117</v>
       </c>
       <c r="E8">
-        <v>10.79773930269125</v>
+        <v>11.28269197828242</v>
       </c>
       <c r="F8">
-        <v>24.58741457607626</v>
+        <v>20.22638340951479</v>
       </c>
       <c r="G8">
-        <v>2.111992234746957</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>20.70270480002798</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.73599122277774</v>
       </c>
       <c r="J8">
-        <v>6.402036134396318</v>
+        <v>8.886816168090011</v>
       </c>
       <c r="K8">
-        <v>11.78349032040781</v>
+        <v>13.47816066806783</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.277463543458323</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.27471692042219</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.69265346146931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.16914587102224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.39954480803807</v>
+        <v>15.21387298074062</v>
       </c>
       <c r="C9">
-        <v>8.283845912090014</v>
+        <v>9.946920725686322</v>
       </c>
       <c r="D9">
-        <v>8.185722781923022</v>
+        <v>9.306885636376819</v>
       </c>
       <c r="E9">
-        <v>11.97313850975628</v>
+        <v>12.49794587282331</v>
       </c>
       <c r="F9">
-        <v>25.39323357004057</v>
+        <v>20.73258271291609</v>
       </c>
       <c r="G9">
-        <v>2.099203149517782</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>20.87731517798165</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.576496943157728</v>
       </c>
       <c r="J9">
-        <v>6.674318717299643</v>
+        <v>8.696166573483286</v>
       </c>
       <c r="K9">
-        <v>13.44112586504783</v>
+        <v>13.00605231635904</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.550452880330326</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.86141363687344</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.67800189230609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.96234930624918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.77460108159536</v>
+        <v>16.48661460058878</v>
       </c>
       <c r="C10">
-        <v>8.882411864780297</v>
+        <v>10.7022626707611</v>
       </c>
       <c r="D10">
-        <v>8.811276919503097</v>
+        <v>9.998603807192005</v>
       </c>
       <c r="E10">
-        <v>12.79867037119382</v>
+        <v>13.35032239133179</v>
       </c>
       <c r="F10">
-        <v>26.09129403126165</v>
+        <v>21.15813855981856</v>
       </c>
       <c r="G10">
-        <v>2.090227175790773</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>21.08705458606432</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.818634869797466</v>
       </c>
       <c r="J10">
-        <v>6.886546403247194</v>
+        <v>8.572409362503725</v>
       </c>
       <c r="K10">
-        <v>14.54479228891888</v>
+        <v>12.67762803553249</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.759558959953914</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.92404783105204</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.75576413588365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.84928891564119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36777248857523</v>
+        <v>17.02350518991897</v>
       </c>
       <c r="C11">
-        <v>9.142628310322545</v>
+        <v>11.07388748040263</v>
       </c>
       <c r="D11">
-        <v>9.085210842462915</v>
+        <v>10.31076711530645</v>
       </c>
       <c r="E11">
-        <v>13.16486868015472</v>
+        <v>13.7314426399242</v>
       </c>
       <c r="F11">
-        <v>26.43258050047812</v>
+        <v>21.33308328040293</v>
       </c>
       <c r="G11">
-        <v>2.086224623209558</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>21.14943130061465</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.932186539997297</v>
       </c>
       <c r="J11">
-        <v>6.985582372999355</v>
+        <v>8.51130640267837</v>
       </c>
       <c r="K11">
-        <v>15.02227392251797</v>
+        <v>12.51185679917599</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.855488573894945</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.39215291735599</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.81252055577321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.78543200731038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58780001982388</v>
+        <v>17.22752804508255</v>
       </c>
       <c r="C12">
-        <v>9.239420612027157</v>
+        <v>11.19106683109568</v>
       </c>
       <c r="D12">
-        <v>9.187382819420655</v>
+        <v>10.42278865933981</v>
       </c>
       <c r="E12">
-        <v>13.30212891060907</v>
+        <v>13.87212900117533</v>
       </c>
       <c r="F12">
-        <v>26.56527402184075</v>
+        <v>21.4191209386352</v>
       </c>
       <c r="G12">
-        <v>2.08471964525637</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>21.20695427117085</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.971958961562489</v>
       </c>
       <c r="J12">
-        <v>7.023430670316866</v>
+        <v>8.493804276340295</v>
       </c>
       <c r="K12">
-        <v>15.19957347163944</v>
+        <v>12.46169725501469</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.89248378582819</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.56168281714855</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.83726406060661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.77551685467408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54061650092348</v>
+        <v>17.18484026457133</v>
       </c>
       <c r="C13">
-        <v>9.218652398963908</v>
+        <v>11.16161799404441</v>
       </c>
       <c r="D13">
-        <v>9.165448069225658</v>
+        <v>10.39783905294454</v>
       </c>
       <c r="E13">
-        <v>13.2726311215794</v>
+        <v>13.84149821628534</v>
       </c>
       <c r="F13">
-        <v>26.53654177796041</v>
+        <v>21.40402422081486</v>
       </c>
       <c r="G13">
-        <v>2.085043308173296</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>21.20046237366801</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.962758693748542</v>
       </c>
       <c r="J13">
-        <v>7.015264185419579</v>
+        <v>8.498539684190042</v>
       </c>
       <c r="K13">
-        <v>15.16154462899736</v>
+        <v>12.47482925453619</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.884597313384728</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.5244628002904</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.83178771366333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.78009745223293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.38596600599244</v>
+        <v>17.04083101209789</v>
       </c>
       <c r="C14">
-        <v>9.150626496790281</v>
+        <v>11.08172763786421</v>
       </c>
       <c r="D14">
-        <v>9.093648018675818</v>
+        <v>10.31963209023599</v>
       </c>
       <c r="E14">
-        <v>13.17618977033657</v>
+        <v>13.74287659308642</v>
       </c>
       <c r="F14">
-        <v>26.44342779236506</v>
+        <v>21.34162252722796</v>
       </c>
       <c r="G14">
-        <v>2.086100598647294</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>21.15667098100211</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.935180085695694</v>
       </c>
       <c r="J14">
-        <v>6.988689319324358</v>
+        <v>8.510275983294575</v>
       </c>
       <c r="K14">
-        <v>15.03693070478676</v>
+        <v>12.50871700193297</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.858566502103182</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.40580051727498</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.81449005553335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.78565350066734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.29064166096535</v>
+        <v>16.94992583220736</v>
       </c>
       <c r="C15">
-        <v>9.108731106317755</v>
+        <v>11.04113393539701</v>
       </c>
       <c r="D15">
-        <v>9.049464383969134</v>
+        <v>10.27330906156327</v>
       </c>
       <c r="E15">
-        <v>13.11693116895066</v>
+        <v>13.68306579311593</v>
       </c>
       <c r="F15">
-        <v>26.38684400205592</v>
+        <v>21.29668342551036</v>
       </c>
       <c r="G15">
-        <v>2.086749585602201</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>21.11833136357092</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.919646640064126</v>
       </c>
       <c r="J15">
-        <v>6.972456084489361</v>
+        <v>8.515593202817005</v>
       </c>
       <c r="K15">
-        <v>14.96014443982858</v>
+        <v>12.52494241068598</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.842470229063226</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.33439193779133</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.80432334543834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.78431219218643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.735189899831</v>
+        <v>16.43285357244442</v>
       </c>
       <c r="C16">
-        <v>8.865162158020674</v>
+        <v>10.75124457126625</v>
       </c>
       <c r="D16">
-        <v>8.79315775704819</v>
+        <v>9.99340667527516</v>
       </c>
       <c r="E16">
-        <v>12.77454428392124</v>
+        <v>13.33213130977903</v>
       </c>
       <c r="F16">
-        <v>26.06947154675764</v>
+        <v>21.08762096562471</v>
       </c>
       <c r="G16">
-        <v>2.090490299835117</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>20.98185432635438</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.821770666511723</v>
       </c>
       <c r="J16">
-        <v>6.880123193728255</v>
+        <v>8.559965458089467</v>
       </c>
       <c r="K16">
-        <v>14.5130948607836</v>
+        <v>12.64946395932152</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.75180028970703</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.9076955824195</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.75250032824767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.81175757741299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.38619342967641</v>
+        <v>16.10733481077964</v>
       </c>
       <c r="C17">
-        <v>8.712638924061752</v>
+        <v>10.57044421786409</v>
       </c>
       <c r="D17">
-        <v>8.633172347815815</v>
+        <v>9.818906983975308</v>
       </c>
       <c r="E17">
-        <v>12.56205471663494</v>
+        <v>13.11413119378291</v>
       </c>
       <c r="F17">
-        <v>25.88088523302292</v>
+        <v>20.96317715786166</v>
       </c>
       <c r="G17">
-        <v>2.092805147061041</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>20.90459418429251</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.761450856721162</v>
       </c>
       <c r="J17">
-        <v>6.824108783983684</v>
+        <v>8.588442175074107</v>
       </c>
       <c r="K17">
-        <v>14.23256229117847</v>
+        <v>12.72757717186895</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.696586944809059</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.63997125007739</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.72631078469502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.83170780535409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18241144368631</v>
+        <v>15.92266525334326</v>
       </c>
       <c r="C18">
-        <v>8.62377524514422</v>
+        <v>10.44248227592091</v>
       </c>
       <c r="D18">
-        <v>8.540153233841114</v>
+        <v>9.712721099969803</v>
       </c>
       <c r="E18">
-        <v>12.43896008164366</v>
+        <v>12.98561346622104</v>
       </c>
       <c r="F18">
-        <v>25.77464736360427</v>
+        <v>20.91117037424441</v>
       </c>
       <c r="G18">
-        <v>2.094144235552613</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>20.89346832841314</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.722342961469151</v>
       </c>
       <c r="J18">
-        <v>6.792126095180056</v>
+        <v>8.610266528477624</v>
       </c>
       <c r="K18">
-        <v>14.06889183648644</v>
+        <v>12.78486367557145</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.665453303174697</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.47922517681023</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.7132493162449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>13.85698889401199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11288906701753</v>
+        <v>15.85528701156899</v>
       </c>
       <c r="C19">
-        <v>8.593492768166669</v>
+        <v>10.4165839924696</v>
       </c>
       <c r="D19">
-        <v>8.508487997782694</v>
+        <v>9.680299374883663</v>
       </c>
       <c r="E19">
-        <v>12.39713421792854</v>
+        <v>12.94359922391097</v>
       </c>
       <c r="F19">
-        <v>25.73905899759602</v>
+        <v>20.87979580325231</v>
       </c>
       <c r="G19">
-        <v>2.094598968088975</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>20.86621278872029</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.712310515006583</v>
       </c>
       <c r="J19">
-        <v>6.781338136042381</v>
+        <v>8.613878185239789</v>
       </c>
       <c r="K19">
-        <v>14.01307756159933</v>
+        <v>12.79530102758368</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.654580854662664</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.42794448714917</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.70916539545987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.85594320594538</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.42365979048715</v>
+        <v>16.14273938955902</v>
       </c>
       <c r="C20">
-        <v>8.728992982121079</v>
+        <v>10.58802518156857</v>
       </c>
       <c r="D20">
-        <v>8.650306800500013</v>
+        <v>9.837214254439861</v>
       </c>
       <c r="E20">
-        <v>12.58476583146856</v>
+        <v>13.1372709250512</v>
       </c>
       <c r="F20">
-        <v>25.900729238983</v>
+        <v>20.97769991218473</v>
       </c>
       <c r="G20">
-        <v>2.092557942225017</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>20.91500065786917</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.767541196479582</v>
       </c>
       <c r="J20">
-        <v>6.8300473566048</v>
+        <v>8.585756079045844</v>
       </c>
       <c r="K20">
-        <v>14.26266497001714</v>
+        <v>12.72012006240356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.702484730377561</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.66834199066845</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.72889021974614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.83046433190615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.43151479738282</v>
+        <v>17.07736805897097</v>
       </c>
       <c r="C21">
-        <v>9.17065478513663</v>
+        <v>11.12937728454196</v>
       </c>
       <c r="D21">
-        <v>9.114779995801126</v>
+        <v>10.34769032420658</v>
       </c>
       <c r="E21">
-        <v>13.20455568576863</v>
+        <v>13.77415470718152</v>
       </c>
       <c r="F21">
-        <v>26.47068352517724</v>
+        <v>21.3400940396444</v>
       </c>
       <c r="G21">
-        <v>2.085789763820763</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>21.13543279256267</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.947236996142901</v>
       </c>
       <c r="J21">
-        <v>6.996485720167908</v>
+        <v>8.501220523340322</v>
       </c>
       <c r="K21">
-        <v>15.07362794886214</v>
+        <v>12.48547901708617</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.86569931998253</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.44557527498601</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.81948116288044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.76982554746887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.06346024306919</v>
+        <v>17.66856004330139</v>
       </c>
       <c r="C22">
-        <v>9.44912910969038</v>
+        <v>11.44281923967433</v>
       </c>
       <c r="D22">
-        <v>9.409234687602959</v>
+        <v>10.66560636859607</v>
       </c>
       <c r="E22">
-        <v>13.60137961933423</v>
+        <v>14.17833069114976</v>
       </c>
       <c r="F22">
-        <v>26.86334102357544</v>
+        <v>21.61454905395098</v>
       </c>
       <c r="G22">
-        <v>2.081428284478246</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>21.3443094319925</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.05861478580732</v>
       </c>
       <c r="J22">
-        <v>7.107271899493941</v>
+        <v>8.457328172987602</v>
       </c>
       <c r="K22">
-        <v>15.58318118470457</v>
+        <v>12.35481170864356</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.97426731878258</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.92786727965868</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.89771840793717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.75876399573502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.72860640080727</v>
+        <v>17.36253363179971</v>
       </c>
       <c r="C23">
-        <v>9.301434904608735</v>
+        <v>11.24758819138747</v>
       </c>
       <c r="D23">
-        <v>9.252919636088585</v>
+        <v>10.49077402096161</v>
       </c>
       <c r="E23">
-        <v>13.39035960285682</v>
+        <v>13.96077229262908</v>
       </c>
       <c r="F23">
-        <v>26.65191486040879</v>
+        <v>21.49069633087612</v>
       </c>
       <c r="G23">
-        <v>2.083750735666696</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>21.27167283061585</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.994961989351276</v>
       </c>
       <c r="J23">
-        <v>7.047963278349258</v>
+        <v>8.48709323874191</v>
       </c>
       <c r="K23">
-        <v>15.31308585999033</v>
+        <v>12.44003076569366</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.91682403094811</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.66647844699625</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.85416239781483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.78071282889263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.40673103124037</v>
+        <v>16.13850594478232</v>
       </c>
       <c r="C24">
-        <v>8.721602974760678</v>
+        <v>10.53216870290346</v>
       </c>
       <c r="D24">
-        <v>8.642563555558215</v>
+        <v>9.81887386036184</v>
       </c>
       <c r="E24">
-        <v>12.57450103267377</v>
+        <v>13.12228962699531</v>
       </c>
       <c r="F24">
-        <v>25.89175096786407</v>
+        <v>21.00943716882135</v>
       </c>
       <c r="G24">
-        <v>2.092669677760951</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>20.97569776039259</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.756824535007029</v>
       </c>
       <c r="J24">
-        <v>6.827361839362815</v>
+        <v>8.597551444198649</v>
       </c>
       <c r="K24">
-        <v>14.24906299031883</v>
+        <v>12.74843542450656</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.700799351729386</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.64594251758832</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.72771785577866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.85790004496838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86411222029674</v>
+        <v>14.70275238193269</v>
       </c>
       <c r="C25">
-        <v>8.052816508662286</v>
+        <v>9.713078441290456</v>
       </c>
       <c r="D25">
-        <v>7.946202746319146</v>
+        <v>9.054576628187688</v>
       </c>
       <c r="E25">
-        <v>11.66140145440993</v>
+        <v>12.18072535422085</v>
       </c>
       <c r="F25">
-        <v>25.15688465292672</v>
+        <v>20.54636240106175</v>
       </c>
       <c r="G25">
-        <v>2.102585813916768</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>20.74876657389794</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.49253544973694</v>
       </c>
       <c r="J25">
-        <v>6.598464645489667</v>
+        <v>8.73421819582228</v>
       </c>
       <c r="K25">
-        <v>13.01278333080077</v>
+        <v>13.10534929931802</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.473985154807504</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.46053677938708</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.66714771220995</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.98441091900709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.56675726395156</v>
+        <v>13.55834947511743</v>
       </c>
       <c r="C2">
-        <v>8.986343942720953</v>
+        <v>9.074444482095789</v>
       </c>
       <c r="D2">
-        <v>8.442504376803338</v>
+        <v>8.51965254404459</v>
       </c>
       <c r="E2">
-        <v>11.45156087433672</v>
+        <v>11.48797178914921</v>
       </c>
       <c r="F2">
-        <v>20.31414448393742</v>
+        <v>19.98612246842572</v>
       </c>
       <c r="G2">
-        <v>20.75820136148505</v>
+        <v>19.60457759221848</v>
       </c>
       <c r="I2">
-        <v>2.673036844584252</v>
+        <v>2.581338984921792</v>
       </c>
       <c r="J2">
-        <v>8.865001641078027</v>
+        <v>9.128705074202488</v>
       </c>
       <c r="K2">
-        <v>13.42562951569991</v>
+        <v>13.05926473959725</v>
       </c>
       <c r="L2">
-        <v>6.314706410084102</v>
+        <v>11.20009338555304</v>
       </c>
       <c r="M2">
-        <v>12.49916367201078</v>
+        <v>8.082925225504969</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.305227734611925</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.56186452819373</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.15251140743028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.89171362787531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72327600300437</v>
+        <v>12.74263435643633</v>
       </c>
       <c r="C3">
-        <v>8.514506698084938</v>
+        <v>8.508235322508344</v>
       </c>
       <c r="D3">
-        <v>8.019406512771239</v>
+        <v>8.085386554688617</v>
       </c>
       <c r="E3">
-        <v>10.94696407812859</v>
+        <v>10.9783319929557</v>
       </c>
       <c r="F3">
-        <v>20.15022974651962</v>
+        <v>19.85145588404943</v>
       </c>
       <c r="G3">
-        <v>20.74701241806118</v>
+        <v>19.67947697174975</v>
       </c>
       <c r="I3">
-        <v>2.821312494748914</v>
+        <v>2.712658362806851</v>
       </c>
       <c r="J3">
-        <v>8.952274139146217</v>
+        <v>9.183325735711607</v>
       </c>
       <c r="K3">
-        <v>13.63197113742227</v>
+        <v>13.26856104685502</v>
       </c>
       <c r="L3">
-        <v>6.210108956319607</v>
+        <v>11.39356849473001</v>
       </c>
       <c r="M3">
-        <v>11.81264659893825</v>
+        <v>8.241061591077177</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.200948644717811</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.86387689182028</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.26136770706614</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.0146041790244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.1742737112497</v>
+        <v>12.2120628085797</v>
       </c>
       <c r="C4">
-        <v>8.214516829459393</v>
+        <v>8.146842149266655</v>
       </c>
       <c r="D4">
-        <v>7.751917257441429</v>
+        <v>7.81090451521014</v>
       </c>
       <c r="E4">
-        <v>10.6311402627041</v>
+        <v>10.6592913784577</v>
       </c>
       <c r="F4">
-        <v>20.06213200411291</v>
+        <v>19.77968011142702</v>
       </c>
       <c r="G4">
-        <v>20.75754227605701</v>
+        <v>19.74396198227664</v>
       </c>
       <c r="I4">
-        <v>2.916472941087844</v>
+        <v>2.7972845813998</v>
       </c>
       <c r="J4">
-        <v>9.009377151297</v>
+        <v>9.218608761351136</v>
       </c>
       <c r="K4">
-        <v>13.76344255979101</v>
+        <v>13.40066016029768</v>
       </c>
       <c r="L4">
-        <v>6.148084735177595</v>
+        <v>11.51707264421314</v>
       </c>
       <c r="M4">
-        <v>11.37013323965144</v>
+        <v>8.355973692490105</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.139033043620556</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.41402279286995</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.3362266575234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.09672634064474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.9402523447512</v>
+        <v>11.98596817627267</v>
       </c>
       <c r="C5">
-        <v>8.099357132719415</v>
+        <v>8.006175108407312</v>
       </c>
       <c r="D5">
-        <v>7.643193791901883</v>
+        <v>7.699272948684829</v>
       </c>
       <c r="E5">
-        <v>10.50204588308655</v>
+        <v>10.52884729761752</v>
       </c>
       <c r="F5">
-        <v>20.02274883657722</v>
+        <v>19.746630214636</v>
       </c>
       <c r="G5">
-        <v>20.75511319727691</v>
+        <v>19.7637995985634</v>
       </c>
       <c r="I5">
-        <v>2.959183728377244</v>
+        <v>2.836187678285328</v>
       </c>
       <c r="J5">
-        <v>9.031801186160283</v>
+        <v>9.231716710483607</v>
       </c>
       <c r="K5">
-        <v>13.81421955908322</v>
+        <v>13.45155697374562</v>
       </c>
       <c r="L5">
-        <v>6.12321327445889</v>
+        <v>11.56455042181967</v>
       </c>
       <c r="M5">
-        <v>11.18652943520001</v>
+        <v>8.405532678872124</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.114186965162474</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.22734036957728</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.36433019010038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.12755021461269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.89786804643074</v>
+        <v>11.94498754075441</v>
       </c>
       <c r="C6">
-        <v>8.09186245232868</v>
+        <v>7.994844229954169</v>
       </c>
       <c r="D6">
-        <v>7.627576766191646</v>
+        <v>7.683127162142882</v>
       </c>
       <c r="E6">
-        <v>10.48166183328723</v>
+        <v>10.50821913240045</v>
       </c>
       <c r="F6">
-        <v>20.00833826042089</v>
+        <v>19.73337086763021</v>
       </c>
       <c r="G6">
-        <v>20.74160955373771</v>
+        <v>19.75409406176793</v>
       </c>
       <c r="I6">
-        <v>2.970061436847587</v>
+        <v>2.84711433333057</v>
       </c>
       <c r="J6">
-        <v>9.033485812440704</v>
+        <v>9.231838068007448</v>
       </c>
       <c r="K6">
-        <v>13.81786036408838</v>
+        <v>13.45538554975088</v>
       </c>
       <c r="L6">
-        <v>6.118911629797195</v>
+        <v>11.56758989138646</v>
       </c>
       <c r="M6">
-        <v>11.15807807941957</v>
+        <v>8.412046951183259</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.10989125450954</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.19834588850474</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.36380043225034</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.12756312068587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.16299516943779</v>
+        <v>12.20175374189141</v>
       </c>
       <c r="C7">
-        <v>8.244566127109046</v>
+        <v>8.173140731355964</v>
       </c>
       <c r="D7">
-        <v>7.757264517704646</v>
+        <v>7.82006448883878</v>
       </c>
       <c r="E7">
-        <v>10.63242443613255</v>
+        <v>10.66226507783359</v>
       </c>
       <c r="F7">
-        <v>20.03966043034741</v>
+        <v>19.74513223190507</v>
       </c>
       <c r="G7">
-        <v>20.72107020700219</v>
+        <v>19.77496779906679</v>
       </c>
       <c r="I7">
-        <v>2.926898639730926</v>
+        <v>2.809923660401723</v>
       </c>
       <c r="J7">
-        <v>9.003970730879519</v>
+        <v>9.184480965336093</v>
       </c>
       <c r="K7">
-        <v>13.75083379346621</v>
+        <v>13.38404572917669</v>
       </c>
       <c r="L7">
-        <v>6.147184071661404</v>
+        <v>11.50001708000816</v>
       </c>
       <c r="M7">
-        <v>11.37397878866109</v>
+        <v>8.348671267045466</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.137823574467731</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.41655930608205</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.32209048852234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.07488862322015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.27239709581343</v>
+        <v>13.27565476512047</v>
       </c>
       <c r="C8">
-        <v>8.865172908878312</v>
+        <v>8.908576707377293</v>
       </c>
       <c r="D8">
-        <v>8.306729374157117</v>
+        <v>8.392291091802873</v>
       </c>
       <c r="E8">
-        <v>11.28269197828242</v>
+        <v>11.3228322427792</v>
       </c>
       <c r="F8">
-        <v>20.22638340951479</v>
+        <v>19.86825321555788</v>
       </c>
       <c r="G8">
-        <v>20.70270480002798</v>
+        <v>19.80340410831155</v>
       </c>
       <c r="I8">
-        <v>2.73599122277774</v>
+        <v>2.642214834289944</v>
       </c>
       <c r="J8">
-        <v>8.886816168090011</v>
+        <v>9.046452639932712</v>
       </c>
       <c r="K8">
-        <v>13.47816066806783</v>
+        <v>13.09913824845463</v>
       </c>
       <c r="L8">
-        <v>6.277463543458323</v>
+        <v>11.23683764136902</v>
       </c>
       <c r="M8">
-        <v>12.27471692042219</v>
+        <v>8.114889297380845</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.267076692360749</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.3297863038264</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.16914587102224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.88727720462607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.21387298074062</v>
+        <v>15.15507428921926</v>
       </c>
       <c r="C9">
-        <v>9.946920725686322</v>
+        <v>10.20291308131181</v>
       </c>
       <c r="D9">
-        <v>9.306885636376819</v>
+        <v>9.421055384417071</v>
       </c>
       <c r="E9">
-        <v>12.49794587282331</v>
+        <v>12.55063067855566</v>
       </c>
       <c r="F9">
-        <v>20.73258271291609</v>
+        <v>20.28245985354394</v>
       </c>
       <c r="G9">
-        <v>20.87731517798165</v>
+        <v>19.83388902655654</v>
       </c>
       <c r="I9">
-        <v>2.576496943157728</v>
+        <v>2.636629830945139</v>
       </c>
       <c r="J9">
-        <v>8.696166573483286</v>
+        <v>8.900464643144396</v>
       </c>
       <c r="K9">
-        <v>13.00605231635904</v>
+        <v>12.60788618617207</v>
       </c>
       <c r="L9">
-        <v>6.550452880330326</v>
+        <v>10.79510876809112</v>
       </c>
       <c r="M9">
-        <v>13.86141363687344</v>
+        <v>7.825341277033615</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.538498770836944</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.94269283753053</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.96234930624918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.62966268803834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.48661460058878</v>
+        <v>16.39118215148288</v>
       </c>
       <c r="C10">
-        <v>10.7022626707611</v>
+        <v>11.07678134120638</v>
       </c>
       <c r="D10">
-        <v>9.998603807192005</v>
+        <v>10.1505491198778</v>
       </c>
       <c r="E10">
-        <v>13.35032239133179</v>
+        <v>13.41929707266286</v>
       </c>
       <c r="F10">
-        <v>21.15813855981856</v>
+        <v>20.56498524877012</v>
       </c>
       <c r="G10">
-        <v>21.08705458606432</v>
+        <v>20.34632706809593</v>
       </c>
       <c r="I10">
-        <v>2.818634869797466</v>
+        <v>2.850943542171415</v>
       </c>
       <c r="J10">
-        <v>8.572409362503725</v>
+        <v>8.643237479407311</v>
       </c>
       <c r="K10">
-        <v>12.67762803553249</v>
+        <v>12.23293351979657</v>
       </c>
       <c r="L10">
-        <v>6.759558959953914</v>
+        <v>10.47263258596279</v>
       </c>
       <c r="M10">
-        <v>14.92404783105204</v>
+        <v>7.681169110659397</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.744223286950585</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.01718854051748</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.84928891564119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.42479048413157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.02350518991897</v>
+        <v>16.91829803334936</v>
       </c>
       <c r="C11">
-        <v>11.07388748040263</v>
+        <v>11.464291147363</v>
       </c>
       <c r="D11">
-        <v>10.31076711530645</v>
+        <v>10.51037938533881</v>
       </c>
       <c r="E11">
-        <v>13.7314426399242</v>
+        <v>13.82136285437348</v>
       </c>
       <c r="F11">
-        <v>21.33308328040293</v>
+        <v>20.55355120661153</v>
       </c>
       <c r="G11">
-        <v>21.14943130061465</v>
+        <v>21.26361583424985</v>
       </c>
       <c r="I11">
-        <v>2.932186539997297</v>
+        <v>2.950869800127497</v>
       </c>
       <c r="J11">
-        <v>8.51130640267837</v>
+        <v>8.28027811398386</v>
       </c>
       <c r="K11">
-        <v>12.51185679917599</v>
+        <v>12.00154535113865</v>
       </c>
       <c r="L11">
-        <v>6.855488573894945</v>
+        <v>10.29329068475965</v>
       </c>
       <c r="M11">
-        <v>15.39215291735599</v>
+        <v>7.573917742682452</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.835391794291482</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.48133324322428</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.78543200731038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.23495940258885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22752804508255</v>
+        <v>17.11934507421919</v>
       </c>
       <c r="C12">
-        <v>11.19106683109568</v>
+        <v>11.5825940652531</v>
       </c>
       <c r="D12">
-        <v>10.42278865933981</v>
+        <v>10.64404145658445</v>
       </c>
       <c r="E12">
-        <v>13.87212900117533</v>
+        <v>13.97157572743489</v>
       </c>
       <c r="F12">
-        <v>21.4191209386352</v>
+        <v>20.55321668561444</v>
       </c>
       <c r="G12">
-        <v>21.20695427117085</v>
+        <v>21.74069470667038</v>
       </c>
       <c r="I12">
-        <v>2.971958961562489</v>
+        <v>2.984327520199181</v>
       </c>
       <c r="J12">
-        <v>8.493804276340295</v>
+        <v>8.132471748310888</v>
       </c>
       <c r="K12">
-        <v>12.46169725501469</v>
+        <v>11.91913036887213</v>
       </c>
       <c r="L12">
-        <v>6.89248378582819</v>
+        <v>10.2305724675831</v>
       </c>
       <c r="M12">
-        <v>15.56168281714855</v>
+        <v>7.539465045188261</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.870163402178772</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.64839531086255</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.77551685467408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.16556110300803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.18484026457133</v>
+        <v>17.07724001714364</v>
       </c>
       <c r="C13">
-        <v>11.16161799404441</v>
+        <v>11.55301781532924</v>
       </c>
       <c r="D13">
-        <v>10.39783905294454</v>
+        <v>10.61429174347861</v>
       </c>
       <c r="E13">
-        <v>13.84149821628534</v>
+        <v>13.93883109908319</v>
       </c>
       <c r="F13">
-        <v>21.40402422081486</v>
+        <v>20.55730264409227</v>
       </c>
       <c r="G13">
-        <v>21.20046237366801</v>
+        <v>21.63958156755543</v>
       </c>
       <c r="I13">
-        <v>2.962758693748542</v>
+        <v>2.976291224295703</v>
       </c>
       <c r="J13">
-        <v>8.498539684190042</v>
+        <v>8.165248399594191</v>
       </c>
       <c r="K13">
-        <v>12.47482925453619</v>
+        <v>11.93915655833928</v>
       </c>
       <c r="L13">
-        <v>6.884597313384728</v>
+        <v>10.24536223878594</v>
       </c>
       <c r="M13">
-        <v>15.5244628002904</v>
+        <v>7.549037541761136</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.862772759752797</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.61175926346319</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.78009745223293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.18330267010539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.04083101209789</v>
+        <v>16.93535335108598</v>
       </c>
       <c r="C14">
-        <v>11.08172763786421</v>
+        <v>11.47227624253905</v>
       </c>
       <c r="D14">
-        <v>10.31963209023599</v>
+        <v>10.52096149622998</v>
       </c>
       <c r="E14">
-        <v>13.74287659308642</v>
+        <v>13.83355238917786</v>
       </c>
       <c r="F14">
-        <v>21.34162252722796</v>
+        <v>20.55524920513189</v>
       </c>
       <c r="G14">
-        <v>21.15667098100211</v>
+        <v>21.30345245377698</v>
       </c>
       <c r="I14">
-        <v>2.935180085695694</v>
+        <v>2.953259755617531</v>
       </c>
       <c r="J14">
-        <v>8.510275983294575</v>
+        <v>8.268581955739958</v>
       </c>
       <c r="K14">
-        <v>12.50871700193297</v>
+        <v>11.99574300948156</v>
       </c>
       <c r="L14">
-        <v>6.858566502103182</v>
+        <v>10.28869092502498</v>
       </c>
       <c r="M14">
-        <v>15.40580051727498</v>
+        <v>7.571995422597566</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.838294436534206</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.4948013995183</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.78565350066734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.23045098695787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.94992583220736</v>
+        <v>16.84589875622228</v>
       </c>
       <c r="C15">
-        <v>11.04113393539701</v>
+        <v>11.43075921398641</v>
       </c>
       <c r="D15">
-        <v>10.27330906156327</v>
+        <v>10.46579897399304</v>
       </c>
       <c r="E15">
-        <v>13.68306579311593</v>
+        <v>13.76985263445351</v>
       </c>
       <c r="F15">
-        <v>21.29668342551036</v>
+        <v>20.54546977956623</v>
       </c>
       <c r="G15">
-        <v>21.11833136357092</v>
+        <v>21.09858369276485</v>
       </c>
       <c r="I15">
-        <v>2.919646640064126</v>
+        <v>2.940905737247998</v>
       </c>
       <c r="J15">
-        <v>8.515593202817005</v>
+        <v>8.329152283989421</v>
       </c>
       <c r="K15">
-        <v>12.52494241068598</v>
+        <v>12.02565553704189</v>
       </c>
       <c r="L15">
-        <v>6.842470229063226</v>
+        <v>10.31252537474096</v>
       </c>
       <c r="M15">
-        <v>15.33439193779133</v>
+        <v>7.581723420832083</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.823098128004392</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.42428972526307</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.78431219218643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.25339457356498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.43285357244442</v>
+        <v>16.33852830141644</v>
       </c>
       <c r="C16">
-        <v>10.75124457126625</v>
+        <v>11.12570086795453</v>
       </c>
       <c r="D16">
-        <v>9.99340667527516</v>
+        <v>10.14244983154492</v>
       </c>
       <c r="E16">
-        <v>13.33213130977903</v>
+        <v>13.39983279112617</v>
       </c>
       <c r="F16">
-        <v>21.08762096562471</v>
+        <v>20.50621261307651</v>
       </c>
       <c r="G16">
-        <v>20.98185432635438</v>
+        <v>20.19756271286413</v>
       </c>
       <c r="I16">
-        <v>2.821770666511723</v>
+        <v>2.858171734667275</v>
       </c>
       <c r="J16">
-        <v>8.559965458089467</v>
+        <v>8.650170402573865</v>
       </c>
       <c r="K16">
-        <v>12.64946395932152</v>
+        <v>12.21252602570646</v>
       </c>
       <c r="L16">
-        <v>6.75180028970703</v>
+        <v>10.46131794121776</v>
       </c>
       <c r="M16">
-        <v>14.9076955824195</v>
+        <v>7.65591165919573</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.736748062927175</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.00079766640524</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.81175757741299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.39608419340482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.10733481077964</v>
+        <v>16.02040910893041</v>
       </c>
       <c r="C17">
-        <v>10.57044421786409</v>
+        <v>10.92757908078535</v>
       </c>
       <c r="D17">
-        <v>9.818906983975308</v>
+        <v>9.947547011464369</v>
       </c>
       <c r="E17">
-        <v>13.11413119378291</v>
+        <v>13.17289722490776</v>
       </c>
       <c r="F17">
-        <v>20.96317715786166</v>
+        <v>20.45963567523661</v>
       </c>
       <c r="G17">
-        <v>20.90459418429251</v>
+        <v>19.81102329349557</v>
       </c>
       <c r="I17">
-        <v>2.761450856721162</v>
+        <v>2.806670403779151</v>
       </c>
       <c r="J17">
-        <v>8.588442175074107</v>
+        <v>8.804235308517221</v>
       </c>
       <c r="K17">
-        <v>12.72757717186895</v>
+        <v>12.31844083497386</v>
       </c>
       <c r="L17">
-        <v>6.696586944809059</v>
+        <v>10.5489996615571</v>
       </c>
       <c r="M17">
-        <v>14.63997125007739</v>
+        <v>7.696846103917027</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.683480694424665</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.73315914266929</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.83170780535409</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.46789420216933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92266525334326</v>
+        <v>15.8404097518073</v>
       </c>
       <c r="C18">
-        <v>10.44248227592091</v>
+        <v>10.78613474498621</v>
       </c>
       <c r="D18">
-        <v>9.712721099969803</v>
+        <v>9.832007500590606</v>
       </c>
       <c r="E18">
-        <v>12.98561346622104</v>
+        <v>13.04029546556185</v>
       </c>
       <c r="F18">
-        <v>20.91117037424441</v>
+        <v>20.44259874894395</v>
       </c>
       <c r="G18">
-        <v>20.89346832841314</v>
+        <v>19.67694607469065</v>
       </c>
       <c r="I18">
-        <v>2.722342961469151</v>
+        <v>2.771282274778133</v>
       </c>
       <c r="J18">
-        <v>8.610266528477624</v>
+        <v>8.878512043142123</v>
       </c>
       <c r="K18">
-        <v>12.78486367557145</v>
+        <v>12.3869357337215</v>
       </c>
       <c r="L18">
-        <v>6.665453303174697</v>
+        <v>10.60529458966677</v>
       </c>
       <c r="M18">
-        <v>14.47922517681023</v>
+        <v>7.728357542282216</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.653208930906763</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.57180224460368</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.85698889401199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.51586506985722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85528701156899</v>
+        <v>15.77478762033289</v>
       </c>
       <c r="C19">
-        <v>10.4165839924696</v>
+        <v>10.75556971516113</v>
       </c>
       <c r="D19">
-        <v>9.680299374883663</v>
+        <v>9.796746842564065</v>
       </c>
       <c r="E19">
-        <v>12.94359922391097</v>
+        <v>12.99704401381545</v>
       </c>
       <c r="F19">
-        <v>20.87979580325231</v>
+        <v>20.42184828108062</v>
       </c>
       <c r="G19">
-        <v>20.86621278872029</v>
+        <v>19.61727772584565</v>
       </c>
       <c r="I19">
-        <v>2.712310515006583</v>
+        <v>2.763351760821774</v>
       </c>
       <c r="J19">
-        <v>8.613878185239789</v>
+        <v>8.896727793892808</v>
       </c>
       <c r="K19">
-        <v>12.79530102758368</v>
+        <v>12.40141979449628</v>
       </c>
       <c r="L19">
-        <v>6.654580854662664</v>
+        <v>10.61841891421863</v>
       </c>
       <c r="M19">
-        <v>14.42794448714917</v>
+        <v>7.731676624577716</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.642592916296462</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.52015536107254</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.85594320594538</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.52182491593457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.14273938955902</v>
+        <v>16.05496294769738</v>
       </c>
       <c r="C20">
-        <v>10.58802518156857</v>
+        <v>10.9472716293981</v>
       </c>
       <c r="D20">
-        <v>9.837214254439861</v>
+        <v>9.96779523995192</v>
       </c>
       <c r="E20">
-        <v>13.1372709250512</v>
+        <v>13.19688572366421</v>
       </c>
       <c r="F20">
-        <v>20.97769991218473</v>
+        <v>20.46680740599847</v>
       </c>
       <c r="G20">
-        <v>20.91500065786917</v>
+        <v>19.84856350098757</v>
       </c>
       <c r="I20">
-        <v>2.767541196479582</v>
+        <v>2.8117492221739</v>
       </c>
       <c r="J20">
-        <v>8.585756079045844</v>
+        <v>8.790092139749872</v>
       </c>
       <c r="K20">
-        <v>12.72012006240356</v>
+        <v>12.30831560252125</v>
       </c>
       <c r="L20">
-        <v>6.702484730377561</v>
+        <v>10.54038032272893</v>
       </c>
       <c r="M20">
-        <v>14.66834199066845</v>
+        <v>7.693368851571257</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.689196669774409</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.76159738907631</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.83046433190615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.46177504796876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.07736805897097</v>
+        <v>16.97339563595136</v>
       </c>
       <c r="C21">
-        <v>11.12937728454196</v>
+        <v>11.50816872207872</v>
       </c>
       <c r="D21">
-        <v>10.34769032420658</v>
+        <v>10.56448718129092</v>
       </c>
       <c r="E21">
-        <v>13.77415470718152</v>
+        <v>13.87172521901202</v>
       </c>
       <c r="F21">
-        <v>21.3400940396444</v>
+        <v>20.49393367154016</v>
       </c>
       <c r="G21">
-        <v>21.13543279256267</v>
+        <v>21.6210022666879</v>
       </c>
       <c r="I21">
-        <v>2.947236996142901</v>
+        <v>2.964099979592319</v>
       </c>
       <c r="J21">
-        <v>8.501220523340322</v>
+        <v>8.15976442308131</v>
       </c>
       <c r="K21">
-        <v>12.48547901708617</v>
+        <v>11.95192948103662</v>
       </c>
       <c r="L21">
-        <v>6.86569931998253</v>
+        <v>10.25941062375596</v>
       </c>
       <c r="M21">
-        <v>15.44557527498601</v>
+        <v>7.538936934344807</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.843875311363531</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.53092765599704</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.76982554746887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.17408845214031</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.66856004330139</v>
+        <v>17.55535717565186</v>
       </c>
       <c r="C22">
-        <v>11.44281923967433</v>
+        <v>11.82904090640336</v>
       </c>
       <c r="D22">
-        <v>10.66560636859607</v>
+        <v>10.94076292711464</v>
       </c>
       <c r="E22">
-        <v>14.17833069114976</v>
+        <v>14.30153964072291</v>
       </c>
       <c r="F22">
-        <v>21.61454905395098</v>
+        <v>20.53020229900494</v>
       </c>
       <c r="G22">
-        <v>21.3443094319925</v>
+        <v>22.9813942407883</v>
       </c>
       <c r="I22">
-        <v>3.05861478580732</v>
+        <v>3.05669194829504</v>
       </c>
       <c r="J22">
-        <v>8.457328172987602</v>
+        <v>7.808596283022297</v>
       </c>
       <c r="K22">
-        <v>12.35481170864356</v>
+        <v>11.72957900774241</v>
       </c>
       <c r="L22">
-        <v>6.97426731878258</v>
+        <v>10.09140967512289</v>
       </c>
       <c r="M22">
-        <v>15.92786727965868</v>
+        <v>7.457903237063032</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.946286399484169</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.00743243668864</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.75876399573502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.99678766613486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.36253363179971</v>
+        <v>17.25257393944405</v>
       </c>
       <c r="C23">
-        <v>11.24758819138747</v>
+        <v>11.63831335479734</v>
       </c>
       <c r="D23">
-        <v>10.49077402096161</v>
+        <v>10.72704189107822</v>
       </c>
       <c r="E23">
-        <v>13.96077229262908</v>
+        <v>14.06683348447681</v>
       </c>
       <c r="F23">
-        <v>21.49069633087612</v>
+        <v>20.56417387922968</v>
       </c>
       <c r="G23">
-        <v>21.27167283061585</v>
+        <v>22.10446306414721</v>
       </c>
       <c r="I23">
-        <v>2.994961989351276</v>
+        <v>3.002345242206552</v>
       </c>
       <c r="J23">
-        <v>8.48709323874191</v>
+        <v>8.03842685395111</v>
       </c>
       <c r="K23">
-        <v>12.44003076569366</v>
+        <v>11.87334214302311</v>
       </c>
       <c r="L23">
-        <v>6.91682403094811</v>
+        <v>10.19494924014865</v>
       </c>
       <c r="M23">
-        <v>15.66647844699625</v>
+        <v>7.524948370903028</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.892942487030014</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.75136566846056</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.78071282889263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.12839784523004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.13850594478232</v>
+        <v>16.05088118905387</v>
       </c>
       <c r="C24">
-        <v>10.53216870290346</v>
+        <v>10.88936950032456</v>
       </c>
       <c r="D24">
-        <v>9.81887386036184</v>
+        <v>9.948750365649166</v>
       </c>
       <c r="E24">
-        <v>13.12228962699531</v>
+        <v>13.18159678320214</v>
       </c>
       <c r="F24">
-        <v>21.00943716882135</v>
+        <v>20.50088912569848</v>
       </c>
       <c r="G24">
-        <v>20.97569776039259</v>
+        <v>19.8967221943759</v>
       </c>
       <c r="I24">
-        <v>2.756824535007029</v>
+        <v>2.799229849805287</v>
       </c>
       <c r="J24">
-        <v>8.597551444198649</v>
+        <v>8.805969222795429</v>
       </c>
       <c r="K24">
-        <v>12.74843542450656</v>
+        <v>12.33536326742915</v>
       </c>
       <c r="L24">
-        <v>6.700799351729386</v>
+        <v>10.55952310727226</v>
       </c>
       <c r="M24">
-        <v>14.64594251758832</v>
+        <v>7.714881993158401</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.687576423494784</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.7392689872924</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.85790004496838</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.49022001431291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.70275238193269</v>
+        <v>14.65909021443325</v>
       </c>
       <c r="C25">
-        <v>9.713078441290456</v>
+        <v>9.921523472919029</v>
       </c>
       <c r="D25">
-        <v>9.054576628187688</v>
+        <v>9.156164675891805</v>
       </c>
       <c r="E25">
-        <v>12.18072535422085</v>
+        <v>12.22792451422148</v>
       </c>
       <c r="F25">
-        <v>20.54636240106175</v>
+        <v>20.14056397202678</v>
       </c>
       <c r="G25">
-        <v>20.74876657389794</v>
+        <v>19.64622159570134</v>
       </c>
       <c r="I25">
-        <v>2.49253544973694</v>
+        <v>2.565118353077477</v>
       </c>
       <c r="J25">
-        <v>8.73421819582228</v>
+        <v>8.968400230782139</v>
       </c>
       <c r="K25">
-        <v>13.10534929931802</v>
+        <v>12.72189373075767</v>
       </c>
       <c r="L25">
-        <v>6.473985154807504</v>
+        <v>10.89826893181796</v>
       </c>
       <c r="M25">
-        <v>13.46053677938708</v>
+        <v>7.874928051001627</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.462992357343921</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.53638801417069</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.98441091900709</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.67927061157251</v>
       </c>
     </row>
   </sheetData>
